--- a/document/excel_upload_자료/TBL_EXP_FIN_ANAL_RESULT.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_FIN_ANAL_RESULT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\두견\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38993EF-E94D-474F-82A2-5DCD03097B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07094848-BF08-416E-95B2-5137CDAA9EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,37 +77,170 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>1/2/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_EXP_FIN_ANAL_RESULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산년도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨설팅내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨설팅 필요여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25FC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무건성
+개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 3년간 순이익률 및 ROE가 증가추세에 있습니다. 또한 순이익률, 영업이익률, ROE 등을 분석했을때 전반적으로 높은 수익성을 기반으로 기업의 미래 성장이 기대됩니다. 동시에 부족한 현금성자산, 높은 부채부담률이라는 측면에서 기업의 유동성 리스크 관리와 차입금상환 계획 등이 필요해 보입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업가치평가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매년 기업가치 평가를 통해 배당, 주식 이동(증여,양도), 차명주식회수, 상속 플랜 등을 실행할 떄 예상되는 세금의 증가 속도를 정기적으로 확인하는 것이 좋습니다. 아울러 매년 적정규모의 비용처리, 정기적인 배당 등을 활용하여 기업가치 증가 속도를 늦추는 방안을 검토해 볼 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배당정책 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>지난 4년간 배당한 이력이 없습니다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF27282C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 현재 기업의 규모, 향후 성장 가능성을 고려했을 때 소득분산, 자금출처, 개인차원 속득세 절감 차원에서 배당정책 수립이 필요합니다. 아울러 정관에 중간배당, 현물배당 등 배당관련 규정을 정비하고, 매년 미처분이익여금 규모를 파악해 적정수준으로 관리하는 전략을 함께 검토하는 것이 좋습니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>급여 및 퇴직금
+플랜 수립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임원퇴직금지급규정 재검토(또는 신규 제정)가 필요합니다. 기존에 퇴직금규정이 있다 하더라도 대표이사가 회사에 기여한 만큼 충분한 퇴직금을 보상받도록 하기 위해서는 희망 퇴직금 규모에 맞는 급여설계와 규정정비가 수반되어야 합니다. 또한 매년 퇴직시점 예상퇴지금 규모와 세금을 계산해 보고, 퇴직금 재원을 마련할 수 있는 구체적인 방안을 함께 수립해야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEO 유고시
+유동성 리스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 결산기말 기준 법인의 비상운영자금이 부족합니다. 갑작스런 CEO유고시 기업이 직면할 유동성 리스크에 대비해 사업용부채(단기부재+연간 판관비의 50%)를 감당할 수 있는 비상 현금성 자산을 별도로 준비하고 있는지, 이를 확보 할 수 있는 구체적인 대비책을 가지고 있는지, 면밀한 검토가 필요합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차명주식 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상법상 발기인 1명 이상이면 법인설립이 가능해진 2002년 이후에 설립된 법인이라 하더라도 잘못된 정보, 과점주주를 피하기 위해서 등의 이유로 여전히 차명주주를 두는 경우가 의외로 많습니다. 현재 해당법인에 차명주주가 있는지 추가적으로 확인해 볼 필요는 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 결산기말 재무상태표 가지급금 잔액은 크게 문제가 되지 않는 수준입니다. 다만 연도 중 정확한 가지급금 규모와 이자부담액을 파악하고자 한다면 세무조정계산서상 가지급금인정이자 명세서를 확인해 볼 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지급금 이슈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상속 및
+가업승계 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대다수 중소기업 CEO의 예상상속재산의 상당한 부분이 보유지분 가치입니다. 기업가치 상승에 따른 예상 상속세를 정기적으로 계산해 보고, 사전에 적은 부담으로 상속세 재원을 마련할 수 있는 대비책을 준비하는 것이 좋습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업제도
+및 인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상법내용에 맞는 정관을 잘 갖추고 있는지 재검토하고, 필요 시 정관변경 작업을 진행할 수 있습니다. 아울러 임원퇴지금 및 임원보수규정, 임원유족보상금규정, 복리후생구정도 함께 정비합니다. 경영기간 3년 이상 법인이라면 정부시책, 정책자금, 정책참여 등의 다양한 지원 혜택을 누릴 수 있는 메인비즈, 이노비즈 인증을 검토해 볼 수 있습니다. 다만, 그에 앞서 연구소 설립과 특허권 보유는 필수적으로 선행되야 할 과제입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사노무검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상시근로자 5인 미만 기업의 경우 연장·야간 휴일근로 등에 대한 가산수당이나 연차휴가, 공휴일 유급휴일 등의 의무규정이 적용되진 않지만, 임금대장 작성, 근로계약서 및 급여명세서 작성 및 배포 등 모든 사업장에 적용되는 기본 규정은 엄격하게 준수해야 합니다. 해당 사항에 미비한 점은 없는지 정기적인 점검이 필요합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BUYER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SEQ</t>
-  </si>
-  <si>
-    <t>1/2/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBL_EXP_FIN_ANAL_RESULT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ITEM_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CONSULT_MSG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CHECK_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +309,18 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF656EB1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF27282C"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -277,7 +422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,17 +456,23 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153AC9D0-4242-43A7-80D5-A7E4643E8D4D}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A4" sqref="A4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -674,13 +825,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="24">
@@ -701,13 +852,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -718,43 +869,243 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="33">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="33">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="33">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="33">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C14">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="D14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C15">
         <v>10</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>16</v>
+      <c r="D15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
